--- a/Timeframes.xlsx
+++ b/Timeframes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/Recirculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E1DC31E4-EFC3-4C9B-9EA6-7A359A30A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD51F57-6B20-4BE3-8D2A-76FBF8401BAE}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E1DC31E4-EFC3-4C9B-9EA6-7A359A30A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C046F9-A046-4692-AD8E-FA1FEA1929ED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2368,7 +2368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A1885E-0F08-477E-88D3-5420A2DC1DA9}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
